--- a/MCM_Func_TestCase.xlsx
+++ b/MCM_Func_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="667">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -3054,6 +3055,9 @@
 B3: Nhấn chọn trường mật khẩu và nhập: '123hien'
 B4: Chọn nút "Đăng nhập"
 B5: Chọn nút "OK" trên thông báo</t>
+  </si>
+  <si>
+    <t>Các ID của các test case được kiểm thử tự động được tô màu vàng</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3217,6 +3221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,7 +3367,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3446,33 +3456,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3488,6 +3471,40 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -3495,7 +3512,607 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4142,18 +4759,484 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LOGIN"/>
+      <sheetName val="REGISTER"/>
+      <sheetName val="FORGOT_PASSWORD"/>
+      <sheetName val="COLLECTION"/>
+      <sheetName val="ACCOUNT"/>
+      <sheetName val="Overview"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I10">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I11">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I12">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I13">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I14">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I15">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I16">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I17">
+            <v>45368</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I10">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I11">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I12">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I13">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I14">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I15">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I19">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I20">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I21">
+            <v>45368</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I10">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I11">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I12">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I13">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I14">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I15">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18" t="str">
+            <v>Untested</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I19">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I20">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I21">
+            <v>45368</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I10">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I11">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I12">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I13">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I14">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I15">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I16">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I17">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I18">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I19">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I20">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I21">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I22">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I23">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I24">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I25">
+            <v>45370</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I26">
+            <v>45370</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I10">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I11">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I12">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I13">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I14">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I15">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I16">
+            <v>45368</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>Untested</v>
+          </cell>
+          <cell r="I17">
+            <v>45368</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H18" totalsRowShown="0">
   <autoFilter ref="C3:H18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="5"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="4">
+    <tableColumn id="1" name="Chức năng" dataDxfId="65"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="64">
       <calculatedColumnFormula>SUM(COUNTA('[1]Đăng nhập'!C12:C24), COUNTA('[1]Đăng kí'!C12:C26),COUNTA('[1]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="3"/>
-    <tableColumn id="4" name="Failed" dataDxfId="2"/>
-    <tableColumn id="5" name="N/A" dataDxfId="1"/>
-    <tableColumn id="6" name="Untested" dataDxfId="0"/>
+    <tableColumn id="3" name="Passed" dataDxfId="63"/>
+    <tableColumn id="4" name="Failed" dataDxfId="62"/>
+    <tableColumn id="5" name="N/A" dataDxfId="61"/>
+    <tableColumn id="6" name="Untested" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4914,36 +5997,36 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -4954,14 +6037,14 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -4972,26 +6055,26 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -5032,38 +6115,38 @@
         <v>31</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -6225,6 +7308,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:F2"/>
@@ -6232,17 +7326,6 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6464,18 +7547,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6680,18 +7763,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6920,18 +8003,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7112,18 +8195,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7139,10 +8222,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H18"/>
+  <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7531,6 +8614,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="49" t="s">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7543,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7657,7 +8745,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -7672,16 +8760,21 @@
       <c r="F10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
+      <c r="G10" s="10">
+        <f>[2]LOGIN!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>[2]LOGIN!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I10" s="12">
+        <f>[2]LOGIN!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="48" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7696,16 +8789,21 @@
       <c r="F11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>46</v>
+      <c r="G11" s="10">
+        <f>[2]LOGIN!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>[2]LOGIN!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I11" s="12">
+        <f>[2]LOGIN!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -7720,16 +8818,21 @@
       <c r="F12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[2]LOGIN!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[2]LOGIN!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[2]LOGIN!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -7744,16 +8847,21 @@
       <c r="F13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[2]LOGIN!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[2]LOGIN!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[2]LOGIN!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -7768,16 +8876,21 @@
       <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[2]LOGIN!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[2]LOGIN!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[2]LOGIN!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -7792,16 +8905,21 @@
       <c r="F15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[2]LOGIN!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[2]LOGIN!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[2]LOGIN!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -7816,16 +8934,21 @@
       <c r="F16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
+      <c r="G16" s="10">
+        <f>[2]LOGIN!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[2]LOGIN!H16</f>
+        <v>Untested</v>
       </c>
       <c r="I16" s="12">
+        <f>[2]LOGIN!I16</f>
         <v>45368</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -7840,28 +8963,33 @@
       <c r="F17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
+      <c r="G17" s="10">
+        <f>[2]LOGIN!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[2]LOGIN!H17</f>
+        <v>Untested</v>
       </c>
       <c r="I17" s="12">
+        <f>[2]LOGIN!I17</f>
         <v>45368</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7879,8 +9007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="E1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7993,7 +9121,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -8008,16 +9136,21 @@
       <c r="F10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
+      <c r="G10" s="10">
+        <f>[2]REGISTER!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>[2]REGISTER!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I10" s="12">
+        <f>[2]REGISTER!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="48" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -8032,16 +9165,21 @@
       <c r="F11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>46</v>
+      <c r="G11" s="10">
+        <f>[2]REGISTER!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>[2]REGISTER!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I11" s="12">
+        <f>[2]REGISTER!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -8056,16 +9194,21 @@
       <c r="F12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[2]REGISTER!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[2]REGISTER!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[2]REGISTER!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="48" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -8080,16 +9223,21 @@
       <c r="F13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[2]REGISTER!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[2]REGISTER!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[2]REGISTER!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -8104,16 +9252,21 @@
       <c r="F14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[2]REGISTER!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[2]REGISTER!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[2]REGISTER!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -8128,16 +9281,21 @@
       <c r="F15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[2]REGISTER!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[2]REGISTER!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[2]REGISTER!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -8152,14 +9310,21 @@
       <c r="F16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="12"/>
+      <c r="G16" s="10">
+        <f>[2]REGISTER!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[2]REGISTER!H16</f>
+        <v>Untested</v>
+      </c>
+      <c r="I16" s="12">
+        <f>[2]REGISTER!I16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="48" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -8174,14 +9339,21 @@
       <c r="F17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="12"/>
+      <c r="G17" s="10">
+        <f>[2]REGISTER!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[2]REGISTER!H17</f>
+        <v>Untested</v>
+      </c>
+      <c r="I17" s="12">
+        <f>[2]REGISTER!I17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8196,14 +9368,21 @@
       <c r="F18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="G18" s="10">
+        <f>[2]REGISTER!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f>[2]REGISTER!H18</f>
+        <v>Untested</v>
+      </c>
+      <c r="I18" s="12">
+        <f>[2]REGISTER!I18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="48" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -8218,16 +9397,21 @@
       <c r="F19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>46</v>
+      <c r="G19" s="10">
+        <f>[2]REGISTER!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f>[2]REGISTER!H19</f>
+        <v>Untested</v>
       </c>
       <c r="I19" s="12">
+        <f>[2]REGISTER!I19</f>
         <v>45368</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="48" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -8242,16 +9426,21 @@
       <c r="F20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>46</v>
+      <c r="G20" s="10">
+        <f>[2]REGISTER!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>[2]REGISTER!H20</f>
+        <v>Untested</v>
       </c>
       <c r="I20" s="12">
+        <f>[2]REGISTER!I20</f>
         <v>45368</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -8266,16 +9455,21 @@
       <c r="F21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
-        <v>46</v>
+      <c r="G21" s="10">
+        <f>[2]REGISTER!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>[2]REGISTER!H21</f>
+        <v>Untested</v>
       </c>
       <c r="I21" s="12">
+        <f>[2]REGISTER!I21</f>
         <v>45368</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="50" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -8300,18 +9494,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8329,8 +9523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8443,7 +9637,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -8458,16 +9652,21 @@
       <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
+      <c r="G10" s="10">
+        <f>[2]FORGOT_PASSWORD!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I10" s="12">
+        <f>[2]FORGOT_PASSWORD!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="48" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -8482,16 +9681,21 @@
       <c r="F11" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>46</v>
+      <c r="G11" s="10">
+        <f>[2]FORGOT_PASSWORD!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I11" s="12">
+        <f>[2]FORGOT_PASSWORD!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="48" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -8506,16 +9710,21 @@
       <c r="F12" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[2]FORGOT_PASSWORD!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[2]FORGOT_PASSWORD!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -8530,16 +9739,21 @@
       <c r="F13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[2]FORGOT_PASSWORD!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[2]FORGOT_PASSWORD!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -8554,16 +9768,21 @@
       <c r="F14" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[2]FORGOT_PASSWORD!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[2]FORGOT_PASSWORD!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -8578,16 +9797,21 @@
       <c r="F15" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[2]FORGOT_PASSWORD!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[2]FORGOT_PASSWORD!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -8602,14 +9826,21 @@
       <c r="F16" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="12"/>
+      <c r="G16" s="10">
+        <f>[2]FORGOT_PASSWORD!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H16</f>
+        <v>Untested</v>
+      </c>
+      <c r="I16" s="12">
+        <f>[2]FORGOT_PASSWORD!I16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -8624,14 +9855,21 @@
       <c r="F17" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="12"/>
+      <c r="G17" s="10">
+        <f>[2]FORGOT_PASSWORD!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H17</f>
+        <v>Untested</v>
+      </c>
+      <c r="I17" s="12">
+        <f>[2]FORGOT_PASSWORD!I17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8646,14 +9884,21 @@
       <c r="F18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="G18" s="10">
+        <f>[2]FORGOT_PASSWORD!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H18</f>
+        <v>Untested</v>
+      </c>
+      <c r="I18" s="12">
+        <f>[2]FORGOT_PASSWORD!I18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="48" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -8668,16 +9913,21 @@
       <c r="F19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>46</v>
+      <c r="G19" s="10">
+        <f>[2]FORGOT_PASSWORD!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H19</f>
+        <v>Untested</v>
       </c>
       <c r="I19" s="12">
+        <f>[2]FORGOT_PASSWORD!I19</f>
         <v>45368</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="48" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -8692,16 +9942,21 @@
       <c r="F20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>46</v>
+      <c r="G20" s="10">
+        <f>[2]FORGOT_PASSWORD!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H20</f>
+        <v>Untested</v>
       </c>
       <c r="I20" s="12">
+        <f>[2]FORGOT_PASSWORD!I20</f>
         <v>45368</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -8716,11 +9971,16 @@
       <c r="F21" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
-        <v>46</v>
+      <c r="G21" s="10">
+        <f>[2]FORGOT_PASSWORD!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>[2]FORGOT_PASSWORD!H21</f>
+        <v>Untested</v>
       </c>
       <c r="I21" s="12">
+        <f>[2]FORGOT_PASSWORD!I21</f>
         <v>45368</v>
       </c>
     </row>
@@ -8750,18 +10010,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9578,18 +10838,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10202,18 +11462,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10231,8 +11491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A24" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10393,7 +11653,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="48" t="s">
         <v>397</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -10408,16 +11668,21 @@
       <c r="F12" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[2]COLLECTION!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[2]COLLECTION!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[2]COLLECTION!I10</f>
         <v>45370</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="48" t="s">
         <v>398</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -10432,16 +11697,21 @@
       <c r="F13" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[2]COLLECTION!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[2]COLLECTION!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[2]COLLECTION!I11</f>
         <v>45370</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="48" t="s">
         <v>399</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -10456,16 +11726,21 @@
       <c r="F14" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[2]COLLECTION!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[2]COLLECTION!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[2]COLLECTION!I12</f>
         <v>45370</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="48" t="s">
         <v>400</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -10480,16 +11755,21 @@
       <c r="F15" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[2]COLLECTION!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[2]COLLECTION!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[2]COLLECTION!I13</f>
         <v>45370</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="48" t="s">
         <v>401</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -10504,16 +11784,21 @@
       <c r="F16" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
+      <c r="G16" s="10">
+        <f>[2]COLLECTION!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[2]COLLECTION!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I16" s="12">
+        <f>[2]COLLECTION!I14</f>
         <v>45370</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="48" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -10528,16 +11813,21 @@
       <c r="F17" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
+      <c r="G17" s="10">
+        <f>[2]COLLECTION!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[2]COLLECTION!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I17" s="12">
+        <f>[2]COLLECTION!I15</f>
         <v>45370</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="48" t="s">
         <v>403</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -10552,16 +11842,21 @@
       <c r="F18" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
-        <v>46</v>
+      <c r="G18" s="10">
+        <f>[2]COLLECTION!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f>[2]COLLECTION!H16</f>
+        <v>Untested</v>
       </c>
       <c r="I18" s="12">
+        <f>[2]COLLECTION!I16</f>
         <v>45370</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="48" t="s">
         <v>404</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -10576,16 +11871,21 @@
       <c r="F19" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>46</v>
+      <c r="G19" s="10">
+        <f>[2]COLLECTION!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f>[2]COLLECTION!H17</f>
+        <v>Untested</v>
       </c>
       <c r="I19" s="12">
+        <f>[2]COLLECTION!I17</f>
         <v>45370</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="48" t="s">
         <v>405</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -10600,16 +11900,21 @@
       <c r="F20" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>46</v>
+      <c r="G20" s="10">
+        <f>[2]COLLECTION!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>[2]COLLECTION!H18</f>
+        <v>Untested</v>
       </c>
       <c r="I20" s="12">
+        <f>[2]COLLECTION!I18</f>
         <v>45370</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="48" t="s">
         <v>406</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -10624,16 +11929,21 @@
       <c r="F21" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
-        <v>46</v>
+      <c r="G21" s="10">
+        <f>[2]COLLECTION!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>[2]COLLECTION!H19</f>
+        <v>Untested</v>
       </c>
       <c r="I21" s="12">
+        <f>[2]COLLECTION!I19</f>
         <v>45370</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="48" t="s">
         <v>407</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -10648,16 +11958,21 @@
       <c r="F22" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11" t="s">
-        <v>46</v>
+      <c r="G22" s="10">
+        <f>[2]COLLECTION!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f>[2]COLLECTION!H20</f>
+        <v>Untested</v>
       </c>
       <c r="I22" s="12">
+        <f>[2]COLLECTION!I20</f>
         <v>45370</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="48" t="s">
         <v>408</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -10672,16 +11987,21 @@
       <c r="F23" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11" t="s">
-        <v>46</v>
+      <c r="G23" s="10">
+        <f>[2]COLLECTION!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f>[2]COLLECTION!H21</f>
+        <v>Untested</v>
       </c>
       <c r="I23" s="12">
+        <f>[2]COLLECTION!I21</f>
         <v>45370</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="48" t="s">
         <v>409</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -10696,16 +12016,21 @@
       <c r="F24" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
-        <v>46</v>
+      <c r="G24" s="10">
+        <f>[2]COLLECTION!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f>[2]COLLECTION!H22</f>
+        <v>Untested</v>
       </c>
       <c r="I24" s="12">
+        <f>[2]COLLECTION!I22</f>
         <v>45370</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="48" t="s">
         <v>410</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -10720,16 +12045,21 @@
       <c r="F25" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11" t="s">
-        <v>46</v>
+      <c r="G25" s="10">
+        <f>[2]COLLECTION!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f>[2]COLLECTION!H23</f>
+        <v>Untested</v>
       </c>
       <c r="I25" s="12">
+        <f>[2]COLLECTION!I23</f>
         <v>45370</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="48" t="s">
         <v>411</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -10744,16 +12074,21 @@
       <c r="F26" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11" t="s">
-        <v>46</v>
+      <c r="G26" s="10">
+        <f>[2]COLLECTION!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f>[2]COLLECTION!H24</f>
+        <v>Untested</v>
       </c>
       <c r="I26" s="12">
+        <f>[2]COLLECTION!I24</f>
         <v>45370</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="48" t="s">
         <v>412</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -10768,16 +12103,21 @@
       <c r="F27" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11" t="s">
-        <v>46</v>
+      <c r="G27" s="10">
+        <f>[2]COLLECTION!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f>[2]COLLECTION!H25</f>
+        <v>Untested</v>
       </c>
       <c r="I27" s="12">
+        <f>[2]COLLECTION!I25</f>
         <v>45370</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="48" t="s">
         <v>413</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -10792,11 +12132,16 @@
       <c r="F28" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11" t="s">
-        <v>46</v>
+      <c r="G28" s="10">
+        <f>[2]COLLECTION!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f>[2]COLLECTION!H26</f>
+        <v>Untested</v>
       </c>
       <c r="I28" s="12">
+        <f>[2]COLLECTION!I26</f>
         <v>45370</v>
       </c>
     </row>
@@ -10826,18 +12171,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10855,8 +12200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11112,7 +12457,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>452</v>
       </c>
@@ -11136,7 +12481,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>453</v>
       </c>
@@ -11304,7 +12649,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>460</v>
       </c>
@@ -11328,7 +12673,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>461</v>
       </c>
@@ -11352,7 +12697,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>462</v>
       </c>
@@ -11666,18 +13011,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11695,8 +13040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11809,7 +13154,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="48" t="s">
         <v>564</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -11824,16 +13169,21 @@
       <c r="F10" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
+      <c r="G10" s="10">
+        <f>[2]ACCOUNT!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>[2]ACCOUNT!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I10" s="12">
+        <f>[2]ACCOUNT!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="48" t="s">
         <v>572</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -11848,16 +13198,21 @@
       <c r="F11" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
-        <v>46</v>
+      <c r="G11" s="10">
+        <f>[2]ACCOUNT!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>[2]ACCOUNT!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I11" s="12">
+        <f>[2]ACCOUNT!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -11872,16 +13227,21 @@
       <c r="F12" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[2]ACCOUNT!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[2]ACCOUNT!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[2]ACCOUNT!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="48" t="s">
         <v>574</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -11896,16 +13256,21 @@
       <c r="F13" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[2]ACCOUNT!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[2]ACCOUNT!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[2]ACCOUNT!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="48" t="s">
         <v>575</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -11920,16 +13285,21 @@
       <c r="F14" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[2]ACCOUNT!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[2]ACCOUNT!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[2]ACCOUNT!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="48" t="s">
         <v>576</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -11944,16 +13314,21 @@
       <c r="F15" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[2]ACCOUNT!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[2]ACCOUNT!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[2]ACCOUNT!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="48" t="s">
         <v>577</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -11968,16 +13343,21 @@
       <c r="F16" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
+      <c r="G16" s="10">
+        <f>[2]ACCOUNT!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[2]ACCOUNT!H16</f>
+        <v>Untested</v>
       </c>
       <c r="I16" s="12">
+        <f>[2]ACCOUNT!I16</f>
         <v>45368</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="48" t="s">
         <v>578</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -11992,28 +13372,33 @@
       <c r="F17" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
+      <c r="G17" s="10">
+        <f>[2]ACCOUNT!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[2]ACCOUNT!H17</f>
+        <v>Untested</v>
       </c>
       <c r="I17" s="12">
+        <f>[2]ACCOUNT!I17</f>
         <v>45368</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MCM_Func_TestCase.xlsx
+++ b/MCM_Func_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -3367,7 +3367,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3453,8 +3453,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3471,38 +3505,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3512,527 +3515,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <color theme="1"/>
@@ -4080,6 +3563,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4702,71 +4225,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Đăng nhập"/>
-      <sheetName val="Đăng kí"/>
-      <sheetName val="Khôi phục mật khẩu"/>
-      <sheetName val="Tìm kiếm sản phẩm"/>
-      <sheetName val="Lọc sản phẩm"/>
-      <sheetName val="Sắp xếp sản phẩm"/>
-      <sheetName val="Hiển thị sản phẩm"/>
-      <sheetName val="Thanh toán"/>
-      <sheetName val="Giỏ hàng"/>
-      <sheetName val="Khuyễn mãi giảm giá"/>
-      <sheetName val="Quản lý hồ sơ cá nhân"/>
-      <sheetName val="Quản lý sổ địa chỉ"/>
-      <sheetName val="Đổi mật khẩu"/>
-      <sheetName val="Hóa đơn GTGT"/>
-      <sheetName val="Thông báo"/>
-      <sheetName val="Sản phẩm yêu thích"/>
-      <sheetName val="Sách theo bộ"/>
-      <sheetName val="Quản lý đơn hàng"/>
-      <sheetName val="Quản lý điểm thưởng và ưu đãi"/>
-      <sheetName val="Đánh giá và nhận xét"/>
-      <sheetName val="Hỗ trợ trực tuyến"/>
-      <sheetName val="Chuyển đổi ngôn ngữ"/>
-      <sheetName val="Đăng xuất"/>
-      <sheetName val="Sumary Report"/>
-      <sheetName val="Overview"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="LOGIN"/>
       <sheetName val="REGISTER"/>
       <sheetName val="FORGOT_PASSWORD"/>
-      <sheetName val="COLLECTION"/>
+      <sheetName val="PUBLISHER"/>
       <sheetName val="ACCOUNT"/>
       <sheetName val="Overview"/>
     </sheetNames>
@@ -5021,7 +4483,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I10">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="11">
@@ -5029,7 +4491,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I11">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="12">
@@ -5037,7 +4499,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I12">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="13">
@@ -5045,7 +4507,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I13">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="14">
@@ -5053,7 +4515,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I14">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="15">
@@ -5061,7 +4523,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I15">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="16">
@@ -5069,7 +4531,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I16">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="17">
@@ -5077,7 +4539,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I17">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="18">
@@ -5085,7 +4547,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I18">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="19">
@@ -5093,7 +4555,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I19">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="20">
@@ -5101,7 +4563,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I20">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="21">
@@ -5109,7 +4571,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I21">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="22">
@@ -5117,7 +4579,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I22">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="23">
@@ -5125,7 +4587,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I23">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="24">
@@ -5133,7 +4595,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I24">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="25">
@@ -5141,7 +4603,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I25">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
         <row r="26">
@@ -5149,7 +4611,7 @@
             <v>Untested</v>
           </cell>
           <cell r="I26">
-            <v>45370</v>
+            <v>45369</v>
           </cell>
         </row>
       </sheetData>
@@ -5219,7 +4681,68 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Đăng nhập"/>
+      <sheetName val="Đăng kí"/>
+      <sheetName val="Khôi phục mật khẩu"/>
+      <sheetName val="Tìm kiếm sản phẩm"/>
+      <sheetName val="Lọc sản phẩm"/>
+      <sheetName val="Sắp xếp sản phẩm"/>
+      <sheetName val="Hiển thị sản phẩm"/>
+      <sheetName val="Thanh toán"/>
+      <sheetName val="Giỏ hàng"/>
+      <sheetName val="Khuyễn mãi giảm giá"/>
+      <sheetName val="Quản lý hồ sơ cá nhân"/>
+      <sheetName val="Quản lý sổ địa chỉ"/>
+      <sheetName val="Đổi mật khẩu"/>
+      <sheetName val="Hóa đơn GTGT"/>
+      <sheetName val="Thông báo"/>
+      <sheetName val="Sản phẩm yêu thích"/>
+      <sheetName val="Sách theo bộ"/>
+      <sheetName val="Quản lý đơn hàng"/>
+      <sheetName val="Quản lý điểm thưởng và ưu đãi"/>
+      <sheetName val="Đánh giá và nhận xét"/>
+      <sheetName val="Hỗ trợ trực tuyến"/>
+      <sheetName val="Chuyển đổi ngôn ngữ"/>
+      <sheetName val="Đăng xuất"/>
+      <sheetName val="Sumary Report"/>
+      <sheetName val="Overview"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5229,14 +4752,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H18" totalsRowShown="0">
   <autoFilter ref="C3:H18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="65"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="64">
-      <calculatedColumnFormula>SUM(COUNTA('[1]Đăng nhập'!C12:C24), COUNTA('[1]Đăng kí'!C12:C26),COUNTA('[1]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
+    <tableColumn id="1" name="Chức năng" dataDxfId="17"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="16">
+      <calculatedColumnFormula>SUM(COUNTA('[2]Đăng nhập'!C12:C24), COUNTA('[2]Đăng kí'!C12:C26),COUNTA('[2]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="63"/>
-    <tableColumn id="4" name="Failed" dataDxfId="62"/>
-    <tableColumn id="5" name="N/A" dataDxfId="61"/>
-    <tableColumn id="6" name="Untested" dataDxfId="60"/>
+    <tableColumn id="3" name="Passed" dataDxfId="15"/>
+    <tableColumn id="4" name="Failed" dataDxfId="14"/>
+    <tableColumn id="5" name="N/A" dataDxfId="13"/>
+    <tableColumn id="6" name="Untested" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5997,36 +5520,36 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -6037,14 +5560,14 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -6065,68 +5588,68 @@
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -6139,14 +5662,14 @@
       <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -7308,17 +6831,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:F2"/>
@@ -7326,6 +6838,17 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7547,18 +7070,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7763,18 +7286,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8003,18 +7526,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8195,18 +7718,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8615,7 +8138,7 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="34" t="s">
         <v>666</v>
       </c>
     </row>
@@ -8745,7 +8268,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -8761,20 +8284,20 @@
         <v>47</v>
       </c>
       <c r="G10" s="10">
-        <f>[2]LOGIN!G10</f>
+        <f>[1]LOGIN!G10</f>
         <v>0</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f>[2]LOGIN!H10</f>
+        <f>[1]LOGIN!H10</f>
         <v>Untested</v>
       </c>
       <c r="I10" s="12">
-        <f>[2]LOGIN!I10</f>
+        <f>[1]LOGIN!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -8790,20 +8313,20 @@
         <v>89</v>
       </c>
       <c r="G11" s="10">
-        <f>[2]LOGIN!G11</f>
+        <f>[1]LOGIN!G11</f>
         <v>0</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f>[2]LOGIN!H11</f>
+        <f>[1]LOGIN!H11</f>
         <v>Untested</v>
       </c>
       <c r="I11" s="12">
-        <f>[2]LOGIN!I11</f>
+        <f>[1]LOGIN!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -8819,20 +8342,20 @@
         <v>89</v>
       </c>
       <c r="G12" s="10">
-        <f>[2]LOGIN!G12</f>
+        <f>[1]LOGIN!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f>[2]LOGIN!H12</f>
+        <f>[1]LOGIN!H12</f>
         <v>Untested</v>
       </c>
       <c r="I12" s="12">
-        <f>[2]LOGIN!I12</f>
+        <f>[1]LOGIN!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -8848,20 +8371,20 @@
         <v>88</v>
       </c>
       <c r="G13" s="10">
-        <f>[2]LOGIN!G13</f>
+        <f>[1]LOGIN!G13</f>
         <v>0</v>
       </c>
       <c r="H13" s="11" t="str">
-        <f>[2]LOGIN!H13</f>
+        <f>[1]LOGIN!H13</f>
         <v>Untested</v>
       </c>
       <c r="I13" s="12">
-        <f>[2]LOGIN!I13</f>
+        <f>[1]LOGIN!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -8877,20 +8400,20 @@
         <v>59</v>
       </c>
       <c r="G14" s="10">
-        <f>[2]LOGIN!G14</f>
+        <f>[1]LOGIN!G14</f>
         <v>0</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f>[2]LOGIN!H14</f>
+        <f>[1]LOGIN!H14</f>
         <v>Untested</v>
       </c>
       <c r="I14" s="12">
-        <f>[2]LOGIN!I14</f>
+        <f>[1]LOGIN!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -8906,20 +8429,20 @@
         <v>59</v>
       </c>
       <c r="G15" s="10">
-        <f>[2]LOGIN!G15</f>
+        <f>[1]LOGIN!G15</f>
         <v>0</v>
       </c>
       <c r="H15" s="11" t="str">
-        <f>[2]LOGIN!H15</f>
+        <f>[1]LOGIN!H15</f>
         <v>Untested</v>
       </c>
       <c r="I15" s="12">
-        <f>[2]LOGIN!I15</f>
+        <f>[1]LOGIN!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -8935,20 +8458,20 @@
         <v>59</v>
       </c>
       <c r="G16" s="10">
-        <f>[2]LOGIN!G16</f>
+        <f>[1]LOGIN!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="11" t="str">
-        <f>[2]LOGIN!H16</f>
+        <f>[1]LOGIN!H16</f>
         <v>Untested</v>
       </c>
       <c r="I16" s="12">
-        <f>[2]LOGIN!I16</f>
+        <f>[1]LOGIN!I16</f>
         <v>45368</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+    <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -8964,32 +8487,32 @@
         <v>59</v>
       </c>
       <c r="G17" s="10">
-        <f>[2]LOGIN!G17</f>
+        <f>[1]LOGIN!G17</f>
         <v>0</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f>[2]LOGIN!H17</f>
+        <f>[1]LOGIN!H17</f>
         <v>Untested</v>
       </c>
       <c r="I17" s="12">
-        <f>[2]LOGIN!I17</f>
+        <f>[1]LOGIN!I17</f>
         <v>45368</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9121,7 +8644,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -9137,20 +8660,20 @@
         <v>94</v>
       </c>
       <c r="G10" s="10">
-        <f>[2]REGISTER!G10</f>
+        <f>[1]REGISTER!G10</f>
         <v>0</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f>[2]REGISTER!H10</f>
+        <f>[1]REGISTER!H10</f>
         <v>Untested</v>
       </c>
       <c r="I10" s="12">
-        <f>[2]REGISTER!I10</f>
+        <f>[1]REGISTER!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -9166,20 +8689,20 @@
         <v>94</v>
       </c>
       <c r="G11" s="10">
-        <f>[2]REGISTER!G11</f>
+        <f>[1]REGISTER!G11</f>
         <v>0</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f>[2]REGISTER!H11</f>
+        <f>[1]REGISTER!H11</f>
         <v>Untested</v>
       </c>
       <c r="I11" s="12">
-        <f>[2]REGISTER!I11</f>
+        <f>[1]REGISTER!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -9195,20 +8718,20 @@
         <v>94</v>
       </c>
       <c r="G12" s="10">
-        <f>[2]REGISTER!G12</f>
+        <f>[1]REGISTER!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f>[2]REGISTER!H12</f>
+        <f>[1]REGISTER!H12</f>
         <v>Untested</v>
       </c>
       <c r="I12" s="12">
-        <f>[2]REGISTER!I12</f>
+        <f>[1]REGISTER!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -9224,20 +8747,20 @@
         <v>94</v>
       </c>
       <c r="G13" s="10">
-        <f>[2]REGISTER!G13</f>
+        <f>[1]REGISTER!G13</f>
         <v>0</v>
       </c>
       <c r="H13" s="11" t="str">
-        <f>[2]REGISTER!H13</f>
+        <f>[1]REGISTER!H13</f>
         <v>Untested</v>
       </c>
       <c r="I13" s="12">
-        <f>[2]REGISTER!I13</f>
+        <f>[1]REGISTER!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -9253,20 +8776,20 @@
         <v>103</v>
       </c>
       <c r="G14" s="10">
-        <f>[2]REGISTER!G14</f>
+        <f>[1]REGISTER!G14</f>
         <v>0</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f>[2]REGISTER!H14</f>
+        <f>[1]REGISTER!H14</f>
         <v>Untested</v>
       </c>
       <c r="I14" s="12">
-        <f>[2]REGISTER!I14</f>
+        <f>[1]REGISTER!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -9282,20 +8805,20 @@
         <v>103</v>
       </c>
       <c r="G15" s="10">
-        <f>[2]REGISTER!G15</f>
+        <f>[1]REGISTER!G15</f>
         <v>0</v>
       </c>
       <c r="H15" s="11" t="str">
-        <f>[2]REGISTER!H15</f>
+        <f>[1]REGISTER!H15</f>
         <v>Untested</v>
       </c>
       <c r="I15" s="12">
-        <f>[2]REGISTER!I15</f>
+        <f>[1]REGISTER!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -9311,20 +8834,20 @@
         <v>103</v>
       </c>
       <c r="G16" s="10">
-        <f>[2]REGISTER!G16</f>
+        <f>[1]REGISTER!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="11" t="str">
-        <f>[2]REGISTER!H16</f>
+        <f>[1]REGISTER!H16</f>
         <v>Untested</v>
       </c>
       <c r="I16" s="12">
-        <f>[2]REGISTER!I16</f>
+        <f>[1]REGISTER!I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -9340,20 +8863,20 @@
         <v>103</v>
       </c>
       <c r="G17" s="10">
-        <f>[2]REGISTER!G17</f>
+        <f>[1]REGISTER!G17</f>
         <v>0</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f>[2]REGISTER!H17</f>
+        <f>[1]REGISTER!H17</f>
         <v>Untested</v>
       </c>
       <c r="I17" s="12">
-        <f>[2]REGISTER!I17</f>
+        <f>[1]REGISTER!I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -9369,20 +8892,20 @@
         <v>104</v>
       </c>
       <c r="G18" s="10">
-        <f>[2]REGISTER!G18</f>
+        <f>[1]REGISTER!G18</f>
         <v>0</v>
       </c>
       <c r="H18" s="11" t="str">
-        <f>[2]REGISTER!H18</f>
+        <f>[1]REGISTER!H18</f>
         <v>Untested</v>
       </c>
       <c r="I18" s="12">
-        <f>[2]REGISTER!I18</f>
+        <f>[1]REGISTER!I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="33" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -9398,20 +8921,20 @@
         <v>105</v>
       </c>
       <c r="G19" s="10">
-        <f>[2]REGISTER!G19</f>
+        <f>[1]REGISTER!G19</f>
         <v>0</v>
       </c>
       <c r="H19" s="11" t="str">
-        <f>[2]REGISTER!H19</f>
+        <f>[1]REGISTER!H19</f>
         <v>Untested</v>
       </c>
       <c r="I19" s="12">
-        <f>[2]REGISTER!I19</f>
+        <f>[1]REGISTER!I19</f>
         <v>45368</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -9427,20 +8950,20 @@
         <v>107</v>
       </c>
       <c r="G20" s="10">
-        <f>[2]REGISTER!G20</f>
+        <f>[1]REGISTER!G20</f>
         <v>0</v>
       </c>
       <c r="H20" s="11" t="str">
-        <f>[2]REGISTER!H20</f>
+        <f>[1]REGISTER!H20</f>
         <v>Untested</v>
       </c>
       <c r="I20" s="12">
-        <f>[2]REGISTER!I20</f>
+        <f>[1]REGISTER!I20</f>
         <v>45368</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -9456,20 +8979,20 @@
         <v>108</v>
       </c>
       <c r="G21" s="10">
-        <f>[2]REGISTER!G21</f>
+        <f>[1]REGISTER!G21</f>
         <v>0</v>
       </c>
       <c r="H21" s="11" t="str">
-        <f>[2]REGISTER!H21</f>
+        <f>[1]REGISTER!H21</f>
         <v>Untested</v>
       </c>
       <c r="I21" s="12">
-        <f>[2]REGISTER!I21</f>
+        <f>[1]REGISTER!I21</f>
         <v>45368</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -9494,18 +9017,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9637,7 +9160,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -9653,20 +9176,20 @@
         <v>141</v>
       </c>
       <c r="G10" s="10">
-        <f>[2]FORGOT_PASSWORD!G10</f>
+        <f>[1]FORGOT_PASSWORD!G10</f>
         <v>0</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H10</f>
+        <f>[1]FORGOT_PASSWORD!H10</f>
         <v>Untested</v>
       </c>
       <c r="I10" s="12">
-        <f>[2]FORGOT_PASSWORD!I10</f>
+        <f>[1]FORGOT_PASSWORD!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="33" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -9682,20 +9205,20 @@
         <v>141</v>
       </c>
       <c r="G11" s="10">
-        <f>[2]FORGOT_PASSWORD!G11</f>
+        <f>[1]FORGOT_PASSWORD!G11</f>
         <v>0</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H11</f>
+        <f>[1]FORGOT_PASSWORD!H11</f>
         <v>Untested</v>
       </c>
       <c r="I11" s="12">
-        <f>[2]FORGOT_PASSWORD!I11</f>
+        <f>[1]FORGOT_PASSWORD!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -9711,20 +9234,20 @@
         <v>141</v>
       </c>
       <c r="G12" s="10">
-        <f>[2]FORGOT_PASSWORD!G12</f>
+        <f>[1]FORGOT_PASSWORD!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H12</f>
+        <f>[1]FORGOT_PASSWORD!H12</f>
         <v>Untested</v>
       </c>
       <c r="I12" s="12">
-        <f>[2]FORGOT_PASSWORD!I12</f>
+        <f>[1]FORGOT_PASSWORD!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -9740,20 +9263,20 @@
         <v>141</v>
       </c>
       <c r="G13" s="10">
-        <f>[2]FORGOT_PASSWORD!G13</f>
+        <f>[1]FORGOT_PASSWORD!G13</f>
         <v>0</v>
       </c>
       <c r="H13" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H13</f>
+        <f>[1]FORGOT_PASSWORD!H13</f>
         <v>Untested</v>
       </c>
       <c r="I13" s="12">
-        <f>[2]FORGOT_PASSWORD!I13</f>
+        <f>[1]FORGOT_PASSWORD!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="33" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -9769,20 +9292,20 @@
         <v>154</v>
       </c>
       <c r="G14" s="10">
-        <f>[2]FORGOT_PASSWORD!G14</f>
+        <f>[1]FORGOT_PASSWORD!G14</f>
         <v>0</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H14</f>
+        <f>[1]FORGOT_PASSWORD!H14</f>
         <v>Untested</v>
       </c>
       <c r="I14" s="12">
-        <f>[2]FORGOT_PASSWORD!I14</f>
+        <f>[1]FORGOT_PASSWORD!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -9798,20 +9321,20 @@
         <v>154</v>
       </c>
       <c r="G15" s="10">
-        <f>[2]FORGOT_PASSWORD!G15</f>
+        <f>[1]FORGOT_PASSWORD!G15</f>
         <v>0</v>
       </c>
       <c r="H15" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H15</f>
+        <f>[1]FORGOT_PASSWORD!H15</f>
         <v>Untested</v>
       </c>
       <c r="I15" s="12">
-        <f>[2]FORGOT_PASSWORD!I15</f>
+        <f>[1]FORGOT_PASSWORD!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -9827,20 +9350,20 @@
         <v>154</v>
       </c>
       <c r="G16" s="10">
-        <f>[2]FORGOT_PASSWORD!G16</f>
+        <f>[1]FORGOT_PASSWORD!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H16</f>
+        <f>[1]FORGOT_PASSWORD!H16</f>
         <v>Untested</v>
       </c>
       <c r="I16" s="12">
-        <f>[2]FORGOT_PASSWORD!I16</f>
+        <f>[1]FORGOT_PASSWORD!I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -9856,20 +9379,20 @@
         <v>154</v>
       </c>
       <c r="G17" s="10">
-        <f>[2]FORGOT_PASSWORD!G17</f>
+        <f>[1]FORGOT_PASSWORD!G17</f>
         <v>0</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H17</f>
+        <f>[1]FORGOT_PASSWORD!H17</f>
         <v>Untested</v>
       </c>
       <c r="I17" s="12">
-        <f>[2]FORGOT_PASSWORD!I17</f>
+        <f>[1]FORGOT_PASSWORD!I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -9885,20 +9408,20 @@
         <v>155</v>
       </c>
       <c r="G18" s="10">
-        <f>[2]FORGOT_PASSWORD!G18</f>
+        <f>[1]FORGOT_PASSWORD!G18</f>
         <v>0</v>
       </c>
       <c r="H18" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H18</f>
+        <f>[1]FORGOT_PASSWORD!H18</f>
         <v>Untested</v>
       </c>
       <c r="I18" s="12">
-        <f>[2]FORGOT_PASSWORD!I18</f>
+        <f>[1]FORGOT_PASSWORD!I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -9914,20 +9437,20 @@
         <v>105</v>
       </c>
       <c r="G19" s="10">
-        <f>[2]FORGOT_PASSWORD!G19</f>
+        <f>[1]FORGOT_PASSWORD!G19</f>
         <v>0</v>
       </c>
       <c r="H19" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H19</f>
+        <f>[1]FORGOT_PASSWORD!H19</f>
         <v>Untested</v>
       </c>
       <c r="I19" s="12">
-        <f>[2]FORGOT_PASSWORD!I19</f>
+        <f>[1]FORGOT_PASSWORD!I19</f>
         <v>45368</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -9943,20 +9466,20 @@
         <v>156</v>
       </c>
       <c r="G20" s="10">
-        <f>[2]FORGOT_PASSWORD!G20</f>
+        <f>[1]FORGOT_PASSWORD!G20</f>
         <v>0</v>
       </c>
       <c r="H20" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H20</f>
+        <f>[1]FORGOT_PASSWORD!H20</f>
         <v>Untested</v>
       </c>
       <c r="I20" s="12">
-        <f>[2]FORGOT_PASSWORD!I20</f>
+        <f>[1]FORGOT_PASSWORD!I20</f>
         <v>45368</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -9972,15 +9495,15 @@
         <v>157</v>
       </c>
       <c r="G21" s="10">
-        <f>[2]FORGOT_PASSWORD!G21</f>
+        <f>[1]FORGOT_PASSWORD!G21</f>
         <v>0</v>
       </c>
       <c r="H21" s="11" t="str">
-        <f>[2]FORGOT_PASSWORD!H21</f>
+        <f>[1]FORGOT_PASSWORD!H21</f>
         <v>Untested</v>
       </c>
       <c r="I21" s="12">
-        <f>[2]FORGOT_PASSWORD!I21</f>
+        <f>[1]FORGOT_PASSWORD!I21</f>
         <v>45368</v>
       </c>
     </row>
@@ -10010,18 +9533,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10550,7 +10073,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>292</v>
       </c>
@@ -10574,7 +10097,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>293</v>
       </c>
@@ -10598,7 +10121,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>294</v>
       </c>
@@ -10622,7 +10145,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>295</v>
       </c>
@@ -10838,18 +10361,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10867,8 +10390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11029,7 +10552,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="33" t="s">
         <v>306</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -11044,16 +10567,21 @@
       <c r="F12" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>46</v>
+      <c r="G12" s="10">
+        <f>[1]PUBLISHER!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>[1]PUBLISHER!H10</f>
+        <v>Untested</v>
       </c>
       <c r="I12" s="12">
+        <f>[1]PUBLISHER!I10</f>
         <v>45369</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="33" t="s">
         <v>307</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -11068,16 +10596,21 @@
       <c r="F13" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
+      <c r="G13" s="10">
+        <f>[1]PUBLISHER!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>[1]PUBLISHER!H11</f>
+        <v>Untested</v>
       </c>
       <c r="I13" s="12">
+        <f>[1]PUBLISHER!I11</f>
         <v>45369</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="33" t="s">
         <v>308</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -11092,16 +10625,21 @@
       <c r="F14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
+      <c r="G14" s="10">
+        <f>[1]PUBLISHER!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f>[1]PUBLISHER!H12</f>
+        <v>Untested</v>
       </c>
       <c r="I14" s="12">
+        <f>[1]PUBLISHER!I12</f>
         <v>45369</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="33" t="s">
         <v>309</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -11116,16 +10654,21 @@
       <c r="F15" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
+      <c r="G15" s="10">
+        <f>[1]PUBLISHER!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>[1]PUBLISHER!H13</f>
+        <v>Untested</v>
       </c>
       <c r="I15" s="12">
+        <f>[1]PUBLISHER!I13</f>
         <v>45369</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="33" t="s">
         <v>334</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -11140,16 +10683,21 @@
       <c r="F16" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
+      <c r="G16" s="10">
+        <f>[1]PUBLISHER!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>[1]PUBLISHER!H14</f>
+        <v>Untested</v>
       </c>
       <c r="I16" s="12">
+        <f>[1]PUBLISHER!I14</f>
         <v>45369</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="33" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -11164,16 +10712,21 @@
       <c r="F17" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
+      <c r="G17" s="10">
+        <f>[1]PUBLISHER!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>[1]PUBLISHER!H15</f>
+        <v>Untested</v>
       </c>
       <c r="I17" s="12">
+        <f>[1]PUBLISHER!I15</f>
         <v>45369</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="33" t="s">
         <v>336</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11188,16 +10741,21 @@
       <c r="F18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
-        <v>46</v>
+      <c r="G18" s="10">
+        <f>[1]PUBLISHER!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f>[1]PUBLISHER!H16</f>
+        <v>Untested</v>
       </c>
       <c r="I18" s="12">
+        <f>[1]PUBLISHER!I16</f>
         <v>45369</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="33" t="s">
         <v>310</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -11212,16 +10770,21 @@
       <c r="F19" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>46</v>
+      <c r="G19" s="10">
+        <f>[1]PUBLISHER!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f>[1]PUBLISHER!H17</f>
+        <v>Untested</v>
       </c>
       <c r="I19" s="12">
+        <f>[1]PUBLISHER!I17</f>
         <v>45369</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="33" t="s">
         <v>311</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -11236,16 +10799,21 @@
       <c r="F20" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>46</v>
+      <c r="G20" s="10">
+        <f>[1]PUBLISHER!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>[1]PUBLISHER!H18</f>
+        <v>Untested</v>
       </c>
       <c r="I20" s="12">
+        <f>[1]PUBLISHER!I18</f>
         <v>45369</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="33" t="s">
         <v>337</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -11260,16 +10828,21 @@
       <c r="F21" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
-        <v>46</v>
+      <c r="G21" s="10">
+        <f>[1]PUBLISHER!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>[1]PUBLISHER!H19</f>
+        <v>Untested</v>
       </c>
       <c r="I21" s="12">
+        <f>[1]PUBLISHER!I19</f>
         <v>45369</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="33" t="s">
         <v>312</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11284,16 +10857,21 @@
       <c r="F22" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11" t="s">
-        <v>46</v>
+      <c r="G22" s="10">
+        <f>[1]PUBLISHER!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f>[1]PUBLISHER!H20</f>
+        <v>Untested</v>
       </c>
       <c r="I22" s="12">
+        <f>[1]PUBLISHER!I20</f>
         <v>45369</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="33" t="s">
         <v>313</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -11308,16 +10886,21 @@
       <c r="F23" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11" t="s">
-        <v>46</v>
+      <c r="G23" s="10">
+        <f>[1]PUBLISHER!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f>[1]PUBLISHER!H21</f>
+        <v>Untested</v>
       </c>
       <c r="I23" s="12">
+        <f>[1]PUBLISHER!I21</f>
         <v>45369</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="33" t="s">
         <v>314</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -11332,16 +10915,21 @@
       <c r="F24" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
-        <v>46</v>
+      <c r="G24" s="10">
+        <f>[1]PUBLISHER!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f>[1]PUBLISHER!H22</f>
+        <v>Untested</v>
       </c>
       <c r="I24" s="12">
+        <f>[1]PUBLISHER!I22</f>
         <v>45369</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="33" t="s">
         <v>315</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -11356,16 +10944,21 @@
       <c r="F25" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11" t="s">
-        <v>46</v>
+      <c r="G25" s="10">
+        <f>[1]PUBLISHER!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f>[1]PUBLISHER!H23</f>
+        <v>Untested</v>
       </c>
       <c r="I25" s="12">
+        <f>[1]PUBLISHER!I23</f>
         <v>45369</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="33" t="s">
         <v>316</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -11380,16 +10973,21 @@
       <c r="F26" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11" t="s">
-        <v>46</v>
+      <c r="G26" s="10">
+        <f>[1]PUBLISHER!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f>[1]PUBLISHER!H24</f>
+        <v>Untested</v>
       </c>
       <c r="I26" s="12">
+        <f>[1]PUBLISHER!I24</f>
         <v>45369</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="33" t="s">
         <v>317</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -11404,16 +11002,21 @@
       <c r="F27" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11" t="s">
-        <v>46</v>
+      <c r="G27" s="10">
+        <f>[1]PUBLISHER!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f>[1]PUBLISHER!H25</f>
+        <v>Untested</v>
       </c>
       <c r="I27" s="12">
+        <f>[1]PUBLISHER!I25</f>
         <v>45369</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="33" t="s">
         <v>318</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -11428,11 +11031,16 @@
       <c r="F28" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11" t="s">
-        <v>46</v>
+      <c r="G28" s="10">
+        <f>[1]PUBLISHER!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f>[1]PUBLISHER!H26</f>
+        <v>Untested</v>
       </c>
       <c r="I28" s="12">
+        <f>[1]PUBLISHER!I26</f>
         <v>45369</v>
       </c>
     </row>
@@ -11462,18 +11070,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11491,8 +11099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B7" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11625,7 +11233,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -11649,11 +11257,11 @@
         <v>46</v>
       </c>
       <c r="I11" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="51" t="s">
         <v>397</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -11668,21 +11276,16 @@
       <c r="F12" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G12" s="10">
-        <f>[2]COLLECTION!G10</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="str">
-        <f>[2]COLLECTION!H10</f>
-        <v>Untested</v>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="12">
-        <f>[2]COLLECTION!I10</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="51" t="s">
         <v>398</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -11697,21 +11300,16 @@
       <c r="F13" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="10">
-        <f>[2]COLLECTION!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f>[2]COLLECTION!H11</f>
-        <v>Untested</v>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="12">
-        <f>[2]COLLECTION!I11</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>399</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -11726,21 +11324,16 @@
       <c r="F14" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="G14" s="10">
-        <f>[2]COLLECTION!G12</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="str">
-        <f>[2]COLLECTION!H12</f>
-        <v>Untested</v>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I14" s="12">
-        <f>[2]COLLECTION!I12</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="51" t="s">
         <v>400</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -11755,21 +11348,16 @@
       <c r="F15" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="10">
-        <f>[2]COLLECTION!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="str">
-        <f>[2]COLLECTION!H13</f>
-        <v>Untested</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="12">
-        <f>[2]COLLECTION!I13</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="51" t="s">
         <v>401</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -11784,21 +11372,16 @@
       <c r="F16" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="10">
-        <f>[2]COLLECTION!G14</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="str">
-        <f>[2]COLLECTION!H14</f>
-        <v>Untested</v>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I16" s="12">
-        <f>[2]COLLECTION!I14</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="51" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -11813,21 +11396,16 @@
       <c r="F17" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="G17" s="10">
-        <f>[2]COLLECTION!G15</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="str">
-        <f>[2]COLLECTION!H15</f>
-        <v>Untested</v>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I17" s="12">
-        <f>[2]COLLECTION!I15</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="51" t="s">
         <v>403</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11842,21 +11420,16 @@
       <c r="F18" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G18" s="10">
-        <f>[2]COLLECTION!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="str">
-        <f>[2]COLLECTION!H16</f>
-        <v>Untested</v>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I18" s="12">
-        <f>[2]COLLECTION!I16</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="51" t="s">
         <v>404</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -11871,21 +11444,16 @@
       <c r="F19" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="G19" s="10">
-        <f>[2]COLLECTION!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="11" t="str">
-        <f>[2]COLLECTION!H17</f>
-        <v>Untested</v>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I19" s="12">
-        <f>[2]COLLECTION!I17</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="51" t="s">
         <v>405</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -11900,21 +11468,16 @@
       <c r="F20" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="G20" s="10">
-        <f>[2]COLLECTION!G18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11" t="str">
-        <f>[2]COLLECTION!H18</f>
-        <v>Untested</v>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I20" s="12">
-        <f>[2]COLLECTION!I18</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>406</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -11929,21 +11492,16 @@
       <c r="F21" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="10">
-        <f>[2]COLLECTION!G19</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="11" t="str">
-        <f>[2]COLLECTION!H19</f>
-        <v>Untested</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I21" s="12">
-        <f>[2]COLLECTION!I19</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>407</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11958,21 +11516,16 @@
       <c r="F22" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G22" s="10">
-        <f>[2]COLLECTION!G20</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="11" t="str">
-        <f>[2]COLLECTION!H20</f>
-        <v>Untested</v>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I22" s="12">
-        <f>[2]COLLECTION!I20</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="51" t="s">
         <v>408</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -11987,21 +11540,16 @@
       <c r="F23" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="G23" s="10">
-        <f>[2]COLLECTION!G21</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="11" t="str">
-        <f>[2]COLLECTION!H21</f>
-        <v>Untested</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I23" s="12">
-        <f>[2]COLLECTION!I21</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="51" t="s">
         <v>409</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -12016,21 +11564,16 @@
       <c r="F24" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G24" s="10">
-        <f>[2]COLLECTION!G22</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="11" t="str">
-        <f>[2]COLLECTION!H22</f>
-        <v>Untested</v>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I24" s="12">
-        <f>[2]COLLECTION!I22</f>
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="198" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
         <v>410</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -12045,21 +11588,16 @@
       <c r="F25" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="G25" s="10">
-        <f>[2]COLLECTION!G23</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="str">
-        <f>[2]COLLECTION!H23</f>
-        <v>Untested</v>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I25" s="12">
-        <f>[2]COLLECTION!I23</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="51" t="s">
         <v>411</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -12074,21 +11612,16 @@
       <c r="F26" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="10">
-        <f>[2]COLLECTION!G24</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="11" t="str">
-        <f>[2]COLLECTION!H24</f>
-        <v>Untested</v>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I26" s="12">
-        <f>[2]COLLECTION!I24</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="51" t="s">
         <v>412</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -12103,21 +11636,16 @@
       <c r="F27" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G27" s="10">
-        <f>[2]COLLECTION!G25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="11" t="str">
-        <f>[2]COLLECTION!H25</f>
-        <v>Untested</v>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I27" s="12">
-        <f>[2]COLLECTION!I25</f>
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="51" t="s">
         <v>413</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -12132,17 +11660,12 @@
       <c r="F28" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G28" s="10">
-        <f>[2]COLLECTION!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="11" t="str">
-        <f>[2]COLLECTION!H26</f>
-        <v>Untested</v>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I28" s="12">
-        <f>[2]COLLECTION!I26</f>
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="132" x14ac:dyDescent="0.3">
@@ -12166,23 +11689,39 @@
         <v>46</v>
       </c>
       <c r="I29" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H29">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12505,7 +12044,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>454</v>
       </c>
@@ -12529,7 +12068,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>455</v>
       </c>
@@ -12577,7 +12116,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>457</v>
       </c>
@@ -12793,7 +12332,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="198" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>536</v>
       </c>
@@ -12865,7 +12404,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>539</v>
       </c>
@@ -12889,7 +12428,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>540</v>
       </c>
@@ -12985,7 +12524,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>544</v>
       </c>
@@ -13011,18 +12550,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13040,7 +12579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -13154,7 +12693,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="33" t="s">
         <v>564</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -13170,20 +12709,20 @@
         <v>580</v>
       </c>
       <c r="G10" s="10">
-        <f>[2]ACCOUNT!G10</f>
+        <f>[1]ACCOUNT!G10</f>
         <v>0</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f>[2]ACCOUNT!H10</f>
+        <f>[1]ACCOUNT!H10</f>
         <v>Untested</v>
       </c>
       <c r="I10" s="12">
-        <f>[2]ACCOUNT!I10</f>
+        <f>[1]ACCOUNT!I10</f>
         <v>45368</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="33" t="s">
         <v>572</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -13199,20 +12738,20 @@
         <v>580</v>
       </c>
       <c r="G11" s="10">
-        <f>[2]ACCOUNT!G11</f>
+        <f>[1]ACCOUNT!G11</f>
         <v>0</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f>[2]ACCOUNT!H11</f>
+        <f>[1]ACCOUNT!H11</f>
         <v>Untested</v>
       </c>
       <c r="I11" s="12">
-        <f>[2]ACCOUNT!I11</f>
+        <f>[1]ACCOUNT!I11</f>
         <v>45368</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="33" t="s">
         <v>573</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -13228,20 +12767,20 @@
         <v>591</v>
       </c>
       <c r="G12" s="10">
-        <f>[2]ACCOUNT!G12</f>
+        <f>[1]ACCOUNT!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f>[2]ACCOUNT!H12</f>
+        <f>[1]ACCOUNT!H12</f>
         <v>Untested</v>
       </c>
       <c r="I12" s="12">
-        <f>[2]ACCOUNT!I12</f>
+        <f>[1]ACCOUNT!I12</f>
         <v>45368</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="33" t="s">
         <v>574</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -13257,20 +12796,20 @@
         <v>591</v>
       </c>
       <c r="G13" s="10">
-        <f>[2]ACCOUNT!G13</f>
+        <f>[1]ACCOUNT!G13</f>
         <v>0</v>
       </c>
       <c r="H13" s="11" t="str">
-        <f>[2]ACCOUNT!H13</f>
+        <f>[1]ACCOUNT!H13</f>
         <v>Untested</v>
       </c>
       <c r="I13" s="12">
-        <f>[2]ACCOUNT!I13</f>
+        <f>[1]ACCOUNT!I13</f>
         <v>45368</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -13286,20 +12825,20 @@
         <v>591</v>
       </c>
       <c r="G14" s="10">
-        <f>[2]ACCOUNT!G14</f>
+        <f>[1]ACCOUNT!G14</f>
         <v>0</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f>[2]ACCOUNT!H14</f>
+        <f>[1]ACCOUNT!H14</f>
         <v>Untested</v>
       </c>
       <c r="I14" s="12">
-        <f>[2]ACCOUNT!I14</f>
+        <f>[1]ACCOUNT!I14</f>
         <v>45368</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="33" t="s">
         <v>576</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -13315,20 +12854,20 @@
         <v>592</v>
       </c>
       <c r="G15" s="10">
-        <f>[2]ACCOUNT!G15</f>
+        <f>[1]ACCOUNT!G15</f>
         <v>0</v>
       </c>
       <c r="H15" s="11" t="str">
-        <f>[2]ACCOUNT!H15</f>
+        <f>[1]ACCOUNT!H15</f>
         <v>Untested</v>
       </c>
       <c r="I15" s="12">
-        <f>[2]ACCOUNT!I15</f>
+        <f>[1]ACCOUNT!I15</f>
         <v>45368</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="33" t="s">
         <v>577</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -13344,20 +12883,20 @@
         <v>593</v>
       </c>
       <c r="G16" s="10">
-        <f>[2]ACCOUNT!G16</f>
+        <f>[1]ACCOUNT!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="11" t="str">
-        <f>[2]ACCOUNT!H16</f>
+        <f>[1]ACCOUNT!H16</f>
         <v>Untested</v>
       </c>
       <c r="I16" s="12">
-        <f>[2]ACCOUNT!I16</f>
+        <f>[1]ACCOUNT!I16</f>
         <v>45368</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="33" t="s">
         <v>578</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -13373,32 +12912,32 @@
         <v>590</v>
       </c>
       <c r="G17" s="10">
-        <f>[2]ACCOUNT!G17</f>
+        <f>[1]ACCOUNT!G17</f>
         <v>0</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f>[2]ACCOUNT!H17</f>
+        <f>[1]ACCOUNT!H17</f>
         <v>Untested</v>
       </c>
       <c r="I17" s="12">
-        <f>[2]ACCOUNT!I17</f>
+        <f>[1]ACCOUNT!I17</f>
         <v>45368</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MCM_Func_TestCase.xlsx
+++ b/MCM_Func_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="889" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="668">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -691,10 +691,6 @@
   </si>
   <si>
     <t>7. Hiển thị icon cảnh báo, với tiêu đề thông báo "cảnh báo", nội dung: "Mã xác nhận không chính xác"
-8. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>7. Hiển thị icon cảnh báo, với tiêu đề thông báo "cảnh báo", nội dung: "Chưa có tài khoản đăng kí trong hệ thống"
 8. Tắt thông báo</t>
   </si>
   <si>
@@ -3058,6 +3054,19 @@
   </si>
   <si>
     <t>Các ID của các test case được kiểm thử tự động được tô màu vàng</t>
+  </si>
+  <si>
+    <t>B1: Mở ứng dụng
+B2: Chọn "Quên mật khẩu"
+B3: Nhấn chọn trường tên đăng nhập và nhập: 'hi'
+B4: Nhấn chọn trường mật khẩu và nhập: '12'
+B5: Nhấn chọn trường xác nhận mật khẩu và nhập: '12'
+B6: Chọn gửi mã xác nhận
+B7: Chọn nút "OK" trên thông báo</t>
+  </si>
+  <si>
+    <t>6. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Chưa có tài khoản đăng kí trong hệ thống do chưa đăng kí tài khoản"
+7. Tắt thông báo</t>
   </si>
 </sst>
 </file>
@@ -3460,35 +3469,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3505,8 +3490,32 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3515,16 +3524,25 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="58">
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3565,95 +3583,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -4681,7 +4610,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4752,14 +4681,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H18" totalsRowShown="0">
   <autoFilter ref="C3:H18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="17"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="16">
+    <tableColumn id="1" name="Chức năng" dataDxfId="5"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="4">
       <calculatedColumnFormula>SUM(COUNTA('[2]Đăng nhập'!C12:C24), COUNTA('[2]Đăng kí'!C12:C26),COUNTA('[2]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="15"/>
-    <tableColumn id="4" name="Failed" dataDxfId="14"/>
-    <tableColumn id="5" name="N/A" dataDxfId="13"/>
-    <tableColumn id="6" name="Untested" dataDxfId="12"/>
+    <tableColumn id="3" name="Passed" dataDxfId="3"/>
+    <tableColumn id="4" name="Failed" dataDxfId="2"/>
+    <tableColumn id="5" name="N/A" dataDxfId="1"/>
+    <tableColumn id="6" name="Untested" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5520,36 +5449,36 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -5560,14 +5489,14 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -5578,98 +5507,98 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -5702,7 +5631,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>5</v>
@@ -5714,13 +5643,13 @@
         <v>45365</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>5</v>
@@ -5732,13 +5661,13 @@
         <v>45366</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>5</v>
@@ -5750,13 +5679,13 @@
         <v>45366</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>5</v>
@@ -6831,6 +6760,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:F2"/>
@@ -6838,17 +6778,6 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6974,19 +6903,19 @@
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>603</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -6998,19 +6927,19 @@
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -7022,19 +6951,19 @@
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -7046,19 +6975,19 @@
     </row>
     <row r="13" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>602</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -7070,18 +6999,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7214,19 +7143,19 @@
     </row>
     <row r="10" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>610</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -7238,19 +7167,19 @@
     </row>
     <row r="11" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -7262,19 +7191,19 @@
     </row>
     <row r="12" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -7286,18 +7215,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7430,19 +7359,19 @@
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>630</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -7454,19 +7383,19 @@
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -7478,19 +7407,19 @@
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -7502,19 +7431,19 @@
     </row>
     <row r="13" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>626</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -7526,18 +7455,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7670,19 +7599,19 @@
     </row>
     <row r="10" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>641</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -7694,19 +7623,19 @@
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>640</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -7718,18 +7647,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7760,16 +7689,16 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3" t="s">
         <v>644</v>
       </c>
-      <c r="D3" t="s">
-        <v>645</v>
-      </c>
       <c r="E3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F3" t="s">
         <v>661</v>
-      </c>
-      <c r="F3" t="s">
-        <v>662</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -7780,7 +7709,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D4" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7805,7 +7734,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D5" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7830,7 +7759,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D6" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7855,7 +7784,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7880,7 +7809,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D8" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7905,7 +7834,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D9" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7930,7 +7859,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D10" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7955,7 +7884,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D11" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -7980,7 +7909,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D12" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -8005,7 +7934,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D13" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -8030,7 +7959,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D14" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -8055,7 +7984,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D15" s="27">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -8080,7 +8009,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -8090,7 +8019,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D17" s="28">
         <f>SUM(D4:D15)</f>
@@ -8115,7 +8044,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
@@ -8139,7 +8068,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -8272,7 +8201,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>55</v>
@@ -8394,7 +8323,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>59</v>
@@ -8452,7 +8381,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>59</v>
@@ -8470,7 +8399,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
@@ -8501,18 +8430,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9017,18 +8946,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9046,8 +8975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9478,7 +9407,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
         <v>120</v>
       </c>
@@ -9489,10 +9418,10 @@
         <v>139</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>140</v>
+        <v>666</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>157</v>
+        <v>667</v>
       </c>
       <c r="G21" s="10">
         <f>[1]FORGOT_PASSWORD!G21</f>
@@ -9521,7 +9450,7 @@
         <v>153</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -9533,18 +9462,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9677,19 +9606,19 @@
     </row>
     <row r="10" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -9701,19 +9630,19 @@
     </row>
     <row r="11" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -9725,19 +9654,19 @@
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -9749,19 +9678,19 @@
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -9773,19 +9702,19 @@
     </row>
     <row r="14" spans="2:9" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -9797,19 +9726,19 @@
     </row>
     <row r="15" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -9821,19 +9750,19 @@
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -9843,19 +9772,19 @@
     </row>
     <row r="17" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -9865,19 +9794,19 @@
     </row>
     <row r="18" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -9887,19 +9816,19 @@
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -9909,19 +9838,19 @@
     </row>
     <row r="20" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
@@ -9931,19 +9860,19 @@
     </row>
     <row r="21" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -9955,19 +9884,19 @@
     </row>
     <row r="22" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -9979,19 +9908,19 @@
     </row>
     <row r="23" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
@@ -10003,19 +9932,19 @@
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -10027,19 +9956,19 @@
     </row>
     <row r="25" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
@@ -10051,19 +9980,19 @@
     </row>
     <row r="26" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -10073,21 +10002,21 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11" t="s">
@@ -10097,21 +10026,21 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11" t="s">
@@ -10121,21 +10050,21 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
@@ -10145,21 +10074,21 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11" t="s">
@@ -10171,19 +10100,19 @@
     </row>
     <row r="31" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="11" t="s">
@@ -10195,19 +10124,19 @@
     </row>
     <row r="32" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11" t="s">
@@ -10219,19 +10148,19 @@
     </row>
     <row r="33" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11" t="s">
@@ -10241,19 +10170,19 @@
     </row>
     <row r="34" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11" t="s">
@@ -10265,19 +10194,19 @@
     </row>
     <row r="35" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11" t="s">
@@ -10289,19 +10218,19 @@
     </row>
     <row r="36" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="11" t="s">
@@ -10313,19 +10242,19 @@
     </row>
     <row r="37" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="11" t="s">
@@ -10337,19 +10266,19 @@
     </row>
     <row r="38" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="11" t="s">
@@ -10361,18 +10290,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10390,7 +10319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -10505,19 +10434,19 @@
     </row>
     <row r="10" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -10529,19 +10458,19 @@
     </row>
     <row r="11" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -10553,19 +10482,19 @@
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G12" s="10">
         <f>[1]PUBLISHER!G10</f>
@@ -10582,19 +10511,19 @@
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="10">
         <f>[1]PUBLISHER!G11</f>
@@ -10611,19 +10540,19 @@
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="10">
         <f>[1]PUBLISHER!G12</f>
@@ -10640,19 +10569,19 @@
     </row>
     <row r="15" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G15" s="10">
         <f>[1]PUBLISHER!G13</f>
@@ -10669,19 +10598,19 @@
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="G16" s="10">
         <f>[1]PUBLISHER!G14</f>
@@ -10698,19 +10627,19 @@
     </row>
     <row r="17" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G17" s="10">
         <f>[1]PUBLISHER!G15</f>
@@ -10727,19 +10656,19 @@
     </row>
     <row r="18" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G18" s="10">
         <f>[1]PUBLISHER!G16</f>
@@ -10756,19 +10685,19 @@
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="G19" s="10">
         <f>[1]PUBLISHER!G17</f>
@@ -10785,19 +10714,19 @@
     </row>
     <row r="20" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G20" s="10">
         <f>[1]PUBLISHER!G18</f>
@@ -10814,19 +10743,19 @@
     </row>
     <row r="21" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G21" s="10">
         <f>[1]PUBLISHER!G19</f>
@@ -10843,19 +10772,19 @@
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="G22" s="10">
         <f>[1]PUBLISHER!G20</f>
@@ -10872,19 +10801,19 @@
     </row>
     <row r="23" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="G23" s="10">
         <f>[1]PUBLISHER!G21</f>
@@ -10901,19 +10830,19 @@
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="G24" s="10">
         <f>[1]PUBLISHER!G22</f>
@@ -10930,19 +10859,19 @@
     </row>
     <row r="25" spans="2:9" ht="198" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="G25" s="10">
         <f>[1]PUBLISHER!G23</f>
@@ -10959,19 +10888,19 @@
     </row>
     <row r="26" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="G26" s="10">
         <f>[1]PUBLISHER!G24</f>
@@ -10988,19 +10917,19 @@
     </row>
     <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="G27" s="10">
         <f>[1]PUBLISHER!G25</f>
@@ -11017,19 +10946,19 @@
     </row>
     <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="G28" s="10">
         <f>[1]PUBLISHER!G26</f>
@@ -11046,19 +10975,19 @@
     </row>
     <row r="29" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
@@ -11070,18 +10999,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11214,19 +11143,19 @@
     </row>
     <row r="10" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -11238,19 +11167,19 @@
     </row>
     <row r="11" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>362</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -11261,20 +11190,20 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
-        <v>397</v>
+      <c r="B12" s="36" t="s">
+        <v>396</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -11285,20 +11214,20 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
-        <v>398</v>
+      <c r="B13" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>428</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -11309,20 +11238,20 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
-        <v>399</v>
+      <c r="B14" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -11333,20 +11262,20 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>400</v>
+      <c r="B15" s="36" t="s">
+        <v>399</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -11357,20 +11286,20 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
-        <v>401</v>
+      <c r="B16" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -11381,20 +11310,20 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
-        <v>402</v>
+      <c r="B17" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -11405,20 +11334,20 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
-        <v>403</v>
+      <c r="B18" s="36" t="s">
+        <v>402</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -11429,20 +11358,20 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="51" t="s">
-        <v>404</v>
+      <c r="B19" s="36" t="s">
+        <v>403</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -11453,20 +11382,20 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
-        <v>405</v>
+      <c r="B20" s="36" t="s">
+        <v>404</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="E20" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
@@ -11477,20 +11406,20 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
-        <v>406</v>
+      <c r="B21" s="36" t="s">
+        <v>405</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -11501,20 +11430,20 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B22" s="51" t="s">
-        <v>407</v>
+      <c r="B22" s="36" t="s">
+        <v>406</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>374</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -11525,20 +11454,20 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
-        <v>408</v>
+      <c r="B23" s="36" t="s">
+        <v>407</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
@@ -11549,20 +11478,20 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
-        <v>409</v>
+      <c r="B24" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -11572,21 +11501,21 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="B25" s="51" t="s">
-        <v>410</v>
+    <row r="25" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
+        <v>409</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
@@ -11597,20 +11526,20 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="51" t="s">
-        <v>411</v>
+      <c r="B26" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -11621,20 +11550,20 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="51" t="s">
-        <v>412</v>
+      <c r="B27" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11" t="s">
@@ -11644,21 +11573,21 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="51" t="s">
-        <v>413</v>
+    <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11" t="s">
@@ -11670,19 +11599,19 @@
     </row>
     <row r="29" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
@@ -11694,34 +11623,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H29">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11854,19 +11783,19 @@
     </row>
     <row r="10" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>467</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -11878,19 +11807,19 @@
     </row>
     <row r="11" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>469</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -11902,19 +11831,19 @@
     </row>
     <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>488</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -11926,19 +11855,19 @@
     </row>
     <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -11950,19 +11879,19 @@
     </row>
     <row r="14" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>494</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -11974,19 +11903,19 @@
     </row>
     <row r="15" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>497</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -11996,21 +11925,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -12020,21 +11949,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -12044,21 +11973,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -12068,21 +11997,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>506</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -12094,19 +12023,19 @@
     </row>
     <row r="20" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>508</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
@@ -12116,21 +12045,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -12142,19 +12071,19 @@
     </row>
     <row r="22" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -12166,19 +12095,19 @@
     </row>
     <row r="23" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
@@ -12190,19 +12119,19 @@
     </row>
     <row r="24" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>521</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>522</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -12214,19 +12143,19 @@
     </row>
     <row r="25" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
@@ -12238,19 +12167,19 @@
     </row>
     <row r="26" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -12262,19 +12191,19 @@
     </row>
     <row r="27" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>525</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>526</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11" t="s">
@@ -12286,19 +12215,19 @@
     </row>
     <row r="28" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11" t="s">
@@ -12310,19 +12239,19 @@
     </row>
     <row r="29" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
@@ -12332,21 +12261,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11" t="s">
@@ -12358,19 +12287,19 @@
     </row>
     <row r="31" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="11" t="s">
@@ -12382,19 +12311,19 @@
     </row>
     <row r="32" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11" t="s">
@@ -12404,21 +12333,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11" t="s">
@@ -12428,21 +12357,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11" t="s">
@@ -12454,19 +12383,19 @@
     </row>
     <row r="35" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>555</v>
-      </c>
       <c r="F35" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11" t="s">
@@ -12478,19 +12407,19 @@
     </row>
     <row r="36" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="11" t="s">
@@ -12502,19 +12431,19 @@
     </row>
     <row r="37" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>558</v>
-      </c>
       <c r="F37" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="11" t="s">
@@ -12524,21 +12453,21 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>562</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="11" t="s">
@@ -12550,18 +12479,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H38">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12694,19 +12623,19 @@
     </row>
     <row r="10" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="G10" s="10">
         <f>[1]ACCOUNT!G10</f>
@@ -12723,19 +12652,19 @@
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="G11" s="10">
         <f>[1]ACCOUNT!G11</f>
@@ -12752,19 +12681,19 @@
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G12" s="10">
         <f>[1]ACCOUNT!G12</f>
@@ -12781,19 +12710,19 @@
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G13" s="10">
         <f>[1]ACCOUNT!G13</f>
@@ -12810,19 +12739,19 @@
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G14" s="10">
         <f>[1]ACCOUNT!G14</f>
@@ -12839,19 +12768,19 @@
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>587</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G15" s="10">
         <f>[1]ACCOUNT!G15</f>
@@ -12868,19 +12797,19 @@
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G16" s="10">
         <f>[1]ACCOUNT!G16</f>
@@ -12897,19 +12826,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>579</v>
-      </c>
       <c r="E17" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>590</v>
       </c>
       <c r="G17" s="10">
         <f>[1]ACCOUNT!G17</f>
@@ -12926,18 +12855,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
